--- a/Config/Excel/Server/ProcessConfig.xlsx
+++ b/Config/Excel/Server/ProcessConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B446CA-C4A4-B844-867C-50DF7F27A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06887E51-BC49-6943-806D-D0902D19DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/Config/Excel/Server/ProcessConfig.xlsx
+++ b/Config/Excel/Server/ProcessConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06887E51-BC49-6943-806D-D0902D19DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B446CA-C4A4-B844-867C-50DF7F27A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
